--- a/Amazon/src/test/resources/DataSource/Test Data.xlsx
+++ b/Amazon/src/test/resources/DataSource/Test Data.xlsx
@@ -1,23 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobad\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDEB578-6A62-4DE6-9D48-1565A4D26F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{31DB4764-4BDE-4A70-B049-802110E9ABEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7D9C8B95-BAED-457D-8446-FF96B0021D38}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7D9C8B95-BAED-457D-8446-FF96B0021D38}"/>
   </bookViews>
   <sheets>
     <sheet name="xpath WebElement" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="UIdata" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A11:E11"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -900,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16EBB2FE-7C75-49B4-9843-77839C6577B0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1244,7 +1240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F2F79B-BF55-4259-BB95-9C38F7947A0F}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
